--- a/StudyProgress/Ebbinghaus-Android.xlsx
+++ b/StudyProgress/Ebbinghaus-Android.xlsx
@@ -799,7 +799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,6 +877,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1291,7 +1294,7 @@
   <dimension ref="A1:N369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1403,24 +1406,24 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="26">
         <v>43402</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="13">
         <f>A5</f>
         <v>1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="13">
         <f>A5</f>
         <v>1</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="13">
         <f>A5</f>
         <v>1</v>
       </c>

--- a/StudyProgress/Ebbinghaus-Android.xlsx
+++ b/StudyProgress/Ebbinghaus-Android.xlsx
@@ -854,6 +854,9 @@
     <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="19" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,9 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:N369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1306,71 +1306,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="51" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="41.25" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="47.25" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="18">
         <v>43402</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1475,7 +1475,7 @@
         <f t="shared" ref="F6:F69" si="2">A6</f>
         <v>2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="13">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">

--- a/StudyProgress/Ebbinghaus-Android.xlsx
+++ b/StudyProgress/Ebbinghaus-Android.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9855"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,23 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="32">
-  <si>
-    <r>
-      <t>项目：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="仿宋_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                                   </t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="53">
   <si>
     <t>序号</t>
   </si>
@@ -138,6 +122,179 @@
   </si>
   <si>
     <t>第十三章</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>项目：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="仿宋_GB2312"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                                   </t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0 眼睛</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1 羚羊</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2 灵儿</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3 灵山</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4 零食</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>06 灵鹿</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 棒球</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 筷子</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 婴儿</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 医生</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>05 领舞</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>07 邦德</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>08 篱笆</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>09 灵鹫</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 钥匙</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 鹦鹉</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 杨柳</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>17 仪器</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 泥巴</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>19 药酒</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 耳洞</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +625,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -670,6 +827,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -799,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,6 +1034,15 @@
     <xf numFmtId="14" fontId="19" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -879,6 +1065,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1291,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N369"/>
+  <dimension ref="A1:Q369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1305,107 +1497,134 @@
     <col min="4" max="14" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="51" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-    </row>
-    <row r="2" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A2" s="20" t="s">
+    <row r="1" spans="1:17" ht="51" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="1:17" ht="21.75" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="41.25" customHeight="1">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" ht="41.25" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="47.25" customHeight="1">
+      <c r="A4" s="24"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-    </row>
-    <row r="4" spans="1:14" ht="47.25" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="24.95" customHeight="1">
+      <c r="O4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="24.95" customHeight="1">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1413,7 +1632,7 @@
         <v>43402</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="13">
         <f>A5</f>
@@ -1428,31 +1647,40 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="24.95" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="24.95" customHeight="1">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1461,7 +1689,7 @@
         <v>43403</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" ref="D6:D69" si="0">A6</f>
@@ -1479,28 +1707,37 @@
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="24.95" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="24.95" customHeight="1">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1509,7 +1746,7 @@
         <v>43404</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
@@ -1530,25 +1767,34 @@
         <v>1</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="24.95" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="24.95" customHeight="1">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1557,7 +1803,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
@@ -1578,25 +1824,34 @@
         <v>2</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="24.95" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="24.95" customHeight="1">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1605,7 +1860,7 @@
         <v>43406</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
@@ -1629,22 +1884,22 @@
         <v>1</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="24.95" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="24.95" customHeight="1">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1653,7 +1908,7 @@
         <v>43407</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
@@ -1677,22 +1932,22 @@
         <v>2</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="24.95" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="24.95" customHeight="1">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1701,7 +1956,7 @@
         <v>43408</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
@@ -1725,22 +1980,22 @@
         <v>3</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="24.95" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="24.95" customHeight="1">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -1749,7 +2004,7 @@
         <v>43409</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
@@ -1776,19 +2031,19 @@
         <v>1</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="24.95" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="24.95" customHeight="1">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1797,7 +2052,7 @@
         <v>43410</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
@@ -1824,19 +2079,19 @@
         <v>2</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="24.95" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="24.95" customHeight="1">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -1845,7 +2100,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
@@ -1872,19 +2127,19 @@
         <v>3</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="24.95" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="24.95" customHeight="1">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -1893,7 +2148,7 @@
         <v>43412</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
@@ -1920,19 +2175,19 @@
         <v>4</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="24.95" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="24.95" customHeight="1">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -1941,7 +2196,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="0"/>
@@ -1968,16 +2223,16 @@
         <v>5</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="24.95" customHeight="1">
@@ -1985,7 +2240,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7">
@@ -2013,16 +2268,16 @@
         <v>6</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="24.95" customHeight="1">
@@ -2030,7 +2285,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7">
@@ -2058,16 +2313,16 @@
         <v>7</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="24.95" customHeight="1">
@@ -2075,7 +2330,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="7">
@@ -2103,16 +2358,16 @@
         <v>8</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="24.95" customHeight="1">
@@ -2120,7 +2375,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="7">
@@ -2151,13 +2406,13 @@
         <v>1</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="24.95" customHeight="1">
@@ -2165,7 +2420,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7">
@@ -2196,13 +2451,13 @@
         <v>2</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="24.95" customHeight="1">
@@ -2210,7 +2465,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="7">
@@ -2241,13 +2496,13 @@
         <v>3</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="24.95" customHeight="1">
@@ -2255,7 +2510,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="7">
@@ -2286,13 +2541,13 @@
         <v>4</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="24.95" customHeight="1">
@@ -2300,7 +2555,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="7">
@@ -2331,13 +2586,13 @@
         <v>5</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="24.95" customHeight="1">
@@ -2345,7 +2600,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="7">
@@ -2376,13 +2631,13 @@
         <v>6</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="24.95" customHeight="1">
@@ -2390,7 +2645,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="7">
@@ -2421,13 +2676,13 @@
         <v>7</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="24.95" customHeight="1">
@@ -2435,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="7">
@@ -2466,13 +2721,13 @@
         <v>8</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="24.95" customHeight="1">
@@ -2480,7 +2735,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="7">
@@ -2511,13 +2766,13 @@
         <v>9</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="24.95" customHeight="1">
@@ -2525,7 +2780,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="7">
@@ -2556,13 +2811,13 @@
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="24.95" customHeight="1">
@@ -2570,7 +2825,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="7">
@@ -2601,13 +2856,13 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="24.95" customHeight="1">
@@ -2615,7 +2870,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="7">
@@ -2646,13 +2901,13 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="24.95" customHeight="1">
@@ -2660,7 +2915,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="13">
@@ -2691,13 +2946,13 @@
         <v>13</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="24.95" customHeight="1">
@@ -2705,7 +2960,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="7">
@@ -2736,13 +2991,13 @@
         <v>14</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="24.95" customHeight="1">
@@ -2750,7 +3005,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="7">
@@ -2781,13 +3036,13 @@
         <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="24.95" customHeight="1">
@@ -2795,7 +3050,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="7">
@@ -2829,10 +3084,10 @@
         <v>1</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="24.95" customHeight="1">
@@ -2840,7 +3095,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="7">
@@ -2874,10 +3129,10 @@
         <v>2</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="24.95" customHeight="1">
@@ -2885,7 +3140,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="7">
@@ -2919,10 +3174,10 @@
         <v>3</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="24.95" customHeight="1">
@@ -2930,7 +3185,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="7">
@@ -2964,10 +3219,10 @@
         <v>4</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="24.95" customHeight="1">
@@ -2975,7 +3230,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="7">
@@ -3009,10 +3264,10 @@
         <v>5</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="24.95" customHeight="1">
@@ -3020,7 +3275,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="7">
@@ -3054,10 +3309,10 @@
         <v>6</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="24.95" customHeight="1">
@@ -3065,7 +3320,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="7">
@@ -3099,10 +3354,10 @@
         <v>7</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="24.95" customHeight="1">
@@ -3110,7 +3365,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="7">
@@ -3144,10 +3399,10 @@
         <v>8</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="24.95" customHeight="1">
@@ -3155,7 +3410,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="7">
@@ -3189,10 +3444,10 @@
         <v>9</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="24.95" customHeight="1">
@@ -3200,7 +3455,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="7">
@@ -3234,10 +3489,10 @@
         <v>10</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="24.95" customHeight="1">
@@ -3245,7 +3500,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="7">
@@ -3279,10 +3534,10 @@
         <v>11</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="24.95" customHeight="1">
@@ -3290,7 +3545,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="7">
@@ -3324,10 +3579,10 @@
         <v>12</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="24.95" customHeight="1">
@@ -3335,7 +3590,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="17">
@@ -3369,10 +3624,10 @@
         <v>13</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="24.95" customHeight="1">
@@ -3380,7 +3635,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="7">
@@ -3414,10 +3669,10 @@
         <v>14</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="24.95" customHeight="1">
@@ -3425,7 +3680,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="7">
@@ -3459,10 +3714,10 @@
         <v>15</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="24.95" customHeight="1">
@@ -3470,7 +3725,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="7">
@@ -3504,10 +3759,10 @@
         <v>16</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="24.95" customHeight="1">
@@ -3515,7 +3770,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="7">
@@ -3549,10 +3804,10 @@
         <v>17</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="24.95" customHeight="1">
@@ -3560,7 +3815,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="7">
@@ -3594,10 +3849,10 @@
         <v>18</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="24.95" customHeight="1">
@@ -3605,7 +3860,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="7">
@@ -3639,10 +3894,10 @@
         <v>19</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="24.95" customHeight="1">
@@ -3650,7 +3905,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="7">
@@ -3684,10 +3939,10 @@
         <v>20</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="24.95" customHeight="1">
@@ -3695,7 +3950,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="7">
@@ -3729,10 +3984,10 @@
         <v>21</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="24.95" customHeight="1">
@@ -3740,7 +3995,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="7">
@@ -3774,10 +4029,10 @@
         <v>22</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="24.95" customHeight="1">
@@ -3785,7 +4040,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="7">
@@ -3819,10 +4074,10 @@
         <v>23</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="24.95" customHeight="1">
@@ -3830,7 +4085,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="7">
@@ -3864,10 +4119,10 @@
         <v>24</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="24.95" customHeight="1">
@@ -3875,7 +4130,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="7">
@@ -3909,10 +4164,10 @@
         <v>25</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="24.95" customHeight="1">
@@ -3920,7 +4175,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="7">
@@ -3954,10 +4209,10 @@
         <v>26</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="24.95" customHeight="1">
@@ -3965,7 +4220,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="7">
@@ -3999,10 +4254,10 @@
         <v>27</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="24.95" customHeight="1">
@@ -4010,7 +4265,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="7">
@@ -4044,10 +4299,10 @@
         <v>28</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="24.95" customHeight="1">
@@ -4055,7 +4310,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="7">
@@ -4089,10 +4344,10 @@
         <v>29</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="24.95" customHeight="1">
@@ -4100,7 +4355,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="7">
@@ -4134,10 +4389,10 @@
         <v>30</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="24.95" customHeight="1">
@@ -4145,7 +4400,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="7">
@@ -4179,10 +4434,10 @@
         <v>31</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="24.95" customHeight="1">
@@ -4190,7 +4445,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="7">
@@ -4224,10 +4479,10 @@
         <v>32</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="24.95" customHeight="1">
@@ -4235,7 +4490,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="7">
@@ -4269,10 +4524,10 @@
         <v>33</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="24.95" customHeight="1">
@@ -4280,7 +4535,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="7">
@@ -4314,10 +4569,10 @@
         <v>34</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="24.95" customHeight="1">
@@ -4325,7 +4580,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="7">
@@ -4359,10 +4614,10 @@
         <v>35</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="24.95" customHeight="1">
@@ -4370,7 +4625,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="7">
@@ -4404,10 +4659,10 @@
         <v>36</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="24.95" customHeight="1">
@@ -4415,7 +4670,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="7">
@@ -4449,10 +4704,10 @@
         <v>37</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="24.95" customHeight="1">
@@ -4460,7 +4715,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="7">
@@ -4494,10 +4749,10 @@
         <v>38</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="24.95" customHeight="1">
@@ -4505,7 +4760,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="7">
@@ -4539,10 +4794,10 @@
         <v>39</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="24.95" customHeight="1">
@@ -4550,7 +4805,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="7">
@@ -4584,10 +4839,10 @@
         <v>40</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="24.95" customHeight="1">
@@ -4595,7 +4850,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="7">
@@ -4629,10 +4884,10 @@
         <v>41</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="24.95" customHeight="1">
@@ -4640,7 +4895,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="7">
@@ -4674,10 +4929,10 @@
         <v>42</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="24.95" customHeight="1">
@@ -4685,7 +4940,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="7">
@@ -4719,10 +4974,10 @@
         <v>43</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="24.95" customHeight="1">
@@ -4730,7 +4985,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="7">
@@ -4764,10 +5019,10 @@
         <v>44</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="24.95" customHeight="1">
@@ -4775,7 +5030,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="7">
@@ -4809,10 +5064,10 @@
         <v>45</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N79" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="24.95" customHeight="1">
@@ -4820,7 +5075,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="7">
@@ -4854,10 +5109,10 @@
         <v>46</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N80" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="24.95" customHeight="1">
@@ -4865,7 +5120,7 @@
         <v>77</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="7">
@@ -4899,10 +5154,10 @@
         <v>47</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N81" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="24.95" customHeight="1">
@@ -4910,7 +5165,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="7">
@@ -4944,10 +5199,10 @@
         <v>48</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="24.95" customHeight="1">
@@ -4955,7 +5210,7 @@
         <v>79</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="7">
@@ -4989,10 +5244,10 @@
         <v>49</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N83" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="24.95" customHeight="1">
@@ -5000,7 +5255,7 @@
         <v>80</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="7">
@@ -5034,10 +5289,10 @@
         <v>50</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="24.95" customHeight="1">
@@ -5045,7 +5300,7 @@
         <v>81</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="7">
@@ -5079,10 +5334,10 @@
         <v>51</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="24.95" customHeight="1">
@@ -5090,7 +5345,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="7">
@@ -5124,10 +5379,10 @@
         <v>52</v>
       </c>
       <c r="M86" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N86" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="24.95" customHeight="1">
@@ -5135,7 +5390,7 @@
         <v>83</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="7">
@@ -5169,10 +5424,10 @@
         <v>53</v>
       </c>
       <c r="M87" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="24.95" customHeight="1">
@@ -5180,7 +5435,7 @@
         <v>84</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="7">
@@ -5214,10 +5469,10 @@
         <v>54</v>
       </c>
       <c r="M88" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="24.95" customHeight="1">
@@ -5225,7 +5480,7 @@
         <v>85</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="7">
@@ -5259,10 +5514,10 @@
         <v>55</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="24.95" customHeight="1">
@@ -5270,7 +5525,7 @@
         <v>86</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="7">
@@ -5304,10 +5559,10 @@
         <v>56</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="24.95" customHeight="1">
@@ -5315,7 +5570,7 @@
         <v>87</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="7">
@@ -5349,10 +5604,10 @@
         <v>57</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="24.95" customHeight="1">
@@ -5360,7 +5615,7 @@
         <v>88</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="7">
@@ -5394,10 +5649,10 @@
         <v>58</v>
       </c>
       <c r="M92" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N92" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="24.95" customHeight="1">
@@ -5405,7 +5660,7 @@
         <v>89</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="7">
@@ -5439,10 +5694,10 @@
         <v>59</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N93" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="24.95" customHeight="1">
@@ -5450,7 +5705,7 @@
         <v>90</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="7">
@@ -5484,10 +5739,10 @@
         <v>60</v>
       </c>
       <c r="M94" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N94" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="24.95" customHeight="1">
@@ -5495,7 +5750,7 @@
         <v>91</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="7">
@@ -5532,7 +5787,7 @@
         <v>1</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="24.95" customHeight="1">
@@ -5540,7 +5795,7 @@
         <v>92</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="7">
@@ -5577,7 +5832,7 @@
         <v>2</v>
       </c>
       <c r="N96" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="24.95" customHeight="1">
@@ -5585,7 +5840,7 @@
         <v>93</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="7">
@@ -5622,7 +5877,7 @@
         <v>3</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="24.95" customHeight="1">
@@ -5630,7 +5885,7 @@
         <v>94</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="7">
@@ -5667,7 +5922,7 @@
         <v>4</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="24.95" customHeight="1">
@@ -5675,7 +5930,7 @@
         <v>95</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="7">
@@ -5712,7 +5967,7 @@
         <v>5</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="24.95" customHeight="1">
@@ -5720,7 +5975,7 @@
         <v>96</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="7">
@@ -5757,7 +6012,7 @@
         <v>6</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="24.95" customHeight="1">
@@ -5765,7 +6020,7 @@
         <v>97</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="7">
@@ -5802,7 +6057,7 @@
         <v>7</v>
       </c>
       <c r="N101" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="24.95" customHeight="1">
@@ -5810,7 +6065,7 @@
         <v>98</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="7">
@@ -5847,7 +6102,7 @@
         <v>8</v>
       </c>
       <c r="N102" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="24.95" customHeight="1">
@@ -5855,7 +6110,7 @@
         <v>99</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="7">
@@ -5892,7 +6147,7 @@
         <v>9</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="24.95" customHeight="1">
@@ -5900,7 +6155,7 @@
         <v>100</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="7">
@@ -5937,7 +6192,7 @@
         <v>10</v>
       </c>
       <c r="N104" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="24.95" customHeight="1">
@@ -5945,7 +6200,7 @@
         <v>101</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="7">
@@ -5982,7 +6237,7 @@
         <v>11</v>
       </c>
       <c r="N105" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="24.95" customHeight="1">
@@ -5990,7 +6245,7 @@
         <v>102</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="7">
@@ -6027,7 +6282,7 @@
         <v>12</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="24.95" customHeight="1">
@@ -6035,7 +6290,7 @@
         <v>103</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="7">
@@ -6072,7 +6327,7 @@
         <v>13</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="24.95" customHeight="1">
@@ -6080,7 +6335,7 @@
         <v>104</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="7">
@@ -6117,7 +6372,7 @@
         <v>14</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="24.95" customHeight="1">
@@ -6125,7 +6380,7 @@
         <v>105</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="7">
@@ -6162,7 +6417,7 @@
         <v>15</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="24.95" customHeight="1">
@@ -6170,7 +6425,7 @@
         <v>106</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="7">
@@ -6207,7 +6462,7 @@
         <v>16</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="24.95" customHeight="1">
@@ -6215,7 +6470,7 @@
         <v>107</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="7">
@@ -6252,7 +6507,7 @@
         <v>17</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="24.95" customHeight="1">
@@ -6260,7 +6515,7 @@
         <v>108</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="7">
@@ -6297,7 +6552,7 @@
         <v>18</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="24.95" customHeight="1">
@@ -6305,7 +6560,7 @@
         <v>109</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="7">
@@ -6342,7 +6597,7 @@
         <v>19</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="24.95" customHeight="1">
@@ -6350,7 +6605,7 @@
         <v>110</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="7">
@@ -6387,7 +6642,7 @@
         <v>20</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="24.95" customHeight="1">
@@ -6395,7 +6650,7 @@
         <v>111</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="7">
@@ -6432,7 +6687,7 @@
         <v>21</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="24.95" customHeight="1">
@@ -6440,7 +6695,7 @@
         <v>112</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="7">
@@ -6477,7 +6732,7 @@
         <v>22</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="24.95" customHeight="1">
@@ -6485,7 +6740,7 @@
         <v>113</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="7">
@@ -6522,7 +6777,7 @@
         <v>23</v>
       </c>
       <c r="N117" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="24.95" customHeight="1">
@@ -6530,7 +6785,7 @@
         <v>114</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="7">
@@ -6567,7 +6822,7 @@
         <v>24</v>
       </c>
       <c r="N118" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="24.95" customHeight="1">
@@ -6575,7 +6830,7 @@
         <v>115</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="7">
@@ -6612,7 +6867,7 @@
         <v>25</v>
       </c>
       <c r="N119" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="24.95" customHeight="1">
@@ -6620,7 +6875,7 @@
         <v>116</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="7">
@@ -6657,7 +6912,7 @@
         <v>26</v>
       </c>
       <c r="N120" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="24.95" customHeight="1">
@@ -6665,7 +6920,7 @@
         <v>117</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="7">
@@ -6702,7 +6957,7 @@
         <v>27</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="24.95" customHeight="1">
@@ -6710,7 +6965,7 @@
         <v>118</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="7">
@@ -6747,7 +7002,7 @@
         <v>28</v>
       </c>
       <c r="N122" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="24.95" customHeight="1">
@@ -6755,7 +7010,7 @@
         <v>119</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="7">
@@ -6792,7 +7047,7 @@
         <v>29</v>
       </c>
       <c r="N123" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="24.95" customHeight="1">
@@ -6800,7 +7055,7 @@
         <v>120</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="7">
@@ -6837,7 +7092,7 @@
         <v>30</v>
       </c>
       <c r="N124" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="24.95" customHeight="1">
@@ -6845,7 +7100,7 @@
         <v>121</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="7">
@@ -6882,7 +7137,7 @@
         <v>31</v>
       </c>
       <c r="N125" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="24.95" customHeight="1">
@@ -6890,7 +7145,7 @@
         <v>122</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="7">
@@ -6927,7 +7182,7 @@
         <v>32</v>
       </c>
       <c r="N126" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="24.95" customHeight="1">
@@ -6935,7 +7190,7 @@
         <v>123</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="7">
@@ -6972,7 +7227,7 @@
         <v>33</v>
       </c>
       <c r="N127" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="24.95" customHeight="1">
@@ -6980,7 +7235,7 @@
         <v>124</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="7">
@@ -7017,7 +7272,7 @@
         <v>34</v>
       </c>
       <c r="N128" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="24.95" customHeight="1">
@@ -7025,7 +7280,7 @@
         <v>125</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="7">
@@ -7062,7 +7317,7 @@
         <v>35</v>
       </c>
       <c r="N129" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="24.95" customHeight="1">
@@ -7070,7 +7325,7 @@
         <v>126</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="7">
@@ -7107,7 +7362,7 @@
         <v>36</v>
       </c>
       <c r="N130" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="24.95" customHeight="1">
@@ -7115,7 +7370,7 @@
         <v>127</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="7">
@@ -7152,7 +7407,7 @@
         <v>37</v>
       </c>
       <c r="N131" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="24.95" customHeight="1">
@@ -7160,7 +7415,7 @@
         <v>128</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="7">
@@ -7197,7 +7452,7 @@
         <v>38</v>
       </c>
       <c r="N132" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="24.95" customHeight="1">
@@ -7205,7 +7460,7 @@
         <v>129</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="7">
@@ -7242,7 +7497,7 @@
         <v>39</v>
       </c>
       <c r="N133" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="24.95" customHeight="1">
@@ -7250,7 +7505,7 @@
         <v>130</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="7">
@@ -7287,7 +7542,7 @@
         <v>40</v>
       </c>
       <c r="N134" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="24.95" customHeight="1">
@@ -7295,7 +7550,7 @@
         <v>131</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="7">
@@ -7332,7 +7587,7 @@
         <v>41</v>
       </c>
       <c r="N135" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="24.95" customHeight="1">
@@ -7340,7 +7595,7 @@
         <v>132</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="7">
@@ -7377,7 +7632,7 @@
         <v>42</v>
       </c>
       <c r="N136" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="24.95" customHeight="1">
@@ -7385,7 +7640,7 @@
         <v>133</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="7">
@@ -7422,7 +7677,7 @@
         <v>43</v>
       </c>
       <c r="N137" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="24.95" customHeight="1">
@@ -7430,7 +7685,7 @@
         <v>134</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="7">
@@ -7467,7 +7722,7 @@
         <v>44</v>
       </c>
       <c r="N138" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="24.95" customHeight="1">
@@ -7475,7 +7730,7 @@
         <v>135</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="7">
@@ -7512,7 +7767,7 @@
         <v>45</v>
       </c>
       <c r="N139" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="24.95" customHeight="1">
@@ -7520,7 +7775,7 @@
         <v>136</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="7">
@@ -7557,7 +7812,7 @@
         <v>46</v>
       </c>
       <c r="N140" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="24.95" customHeight="1">
@@ -7565,7 +7820,7 @@
         <v>137</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="7">
@@ -7602,7 +7857,7 @@
         <v>47</v>
       </c>
       <c r="N141" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="24.95" customHeight="1">
@@ -7610,7 +7865,7 @@
         <v>138</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="7">
@@ -7647,7 +7902,7 @@
         <v>48</v>
       </c>
       <c r="N142" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="24.95" customHeight="1">
@@ -7655,7 +7910,7 @@
         <v>139</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="7">
@@ -7692,7 +7947,7 @@
         <v>49</v>
       </c>
       <c r="N143" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="24.95" customHeight="1">
@@ -7700,7 +7955,7 @@
         <v>140</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="7">
@@ -7737,7 +7992,7 @@
         <v>50</v>
       </c>
       <c r="N144" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="24.95" customHeight="1">
@@ -7745,7 +8000,7 @@
         <v>141</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="7">
@@ -7782,7 +8037,7 @@
         <v>51</v>
       </c>
       <c r="N145" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="24.95" customHeight="1">
@@ -7790,7 +8045,7 @@
         <v>142</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="7">
@@ -7827,7 +8082,7 @@
         <v>52</v>
       </c>
       <c r="N146" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="24.95" customHeight="1">
@@ -7835,7 +8090,7 @@
         <v>143</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="7">
@@ -7872,7 +8127,7 @@
         <v>53</v>
       </c>
       <c r="N147" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="24.95" customHeight="1">
@@ -7880,7 +8135,7 @@
         <v>144</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="7">
@@ -7917,7 +8172,7 @@
         <v>54</v>
       </c>
       <c r="N148" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="24.95" customHeight="1">
@@ -7925,7 +8180,7 @@
         <v>145</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="7">
@@ -7962,7 +8217,7 @@
         <v>55</v>
       </c>
       <c r="N149" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="24.95" customHeight="1">
@@ -7970,7 +8225,7 @@
         <v>146</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="7">
@@ -8007,7 +8262,7 @@
         <v>56</v>
       </c>
       <c r="N150" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="24.95" customHeight="1">
@@ -8015,7 +8270,7 @@
         <v>147</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="7">
@@ -8052,7 +8307,7 @@
         <v>57</v>
       </c>
       <c r="N151" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="24.95" customHeight="1">
@@ -8060,7 +8315,7 @@
         <v>148</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="7">
@@ -8097,7 +8352,7 @@
         <v>58</v>
       </c>
       <c r="N152" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="24.95" customHeight="1">
@@ -8105,7 +8360,7 @@
         <v>149</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="7">
@@ -8142,7 +8397,7 @@
         <v>59</v>
       </c>
       <c r="N153" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="24.95" customHeight="1">
@@ -8150,7 +8405,7 @@
         <v>150</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="7">
@@ -8187,7 +8442,7 @@
         <v>60</v>
       </c>
       <c r="N154" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="24.95" customHeight="1">
@@ -8195,7 +8450,7 @@
         <v>151</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="7">
@@ -8232,7 +8487,7 @@
         <v>61</v>
       </c>
       <c r="N155" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="24.95" customHeight="1">
@@ -8240,7 +8495,7 @@
         <v>152</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="7">
@@ -8277,7 +8532,7 @@
         <v>62</v>
       </c>
       <c r="N156" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="24.95" customHeight="1">
@@ -8285,7 +8540,7 @@
         <v>153</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="7">
@@ -8322,7 +8577,7 @@
         <v>63</v>
       </c>
       <c r="N157" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="24.95" customHeight="1">
@@ -8330,7 +8585,7 @@
         <v>154</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="7">
@@ -8367,7 +8622,7 @@
         <v>64</v>
       </c>
       <c r="N158" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="24.95" customHeight="1">
@@ -8375,7 +8630,7 @@
         <v>155</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="7">
@@ -8412,7 +8667,7 @@
         <v>65</v>
       </c>
       <c r="N159" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="24.95" customHeight="1">
@@ -8420,7 +8675,7 @@
         <v>156</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="7">
@@ -8457,7 +8712,7 @@
         <v>66</v>
       </c>
       <c r="N160" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="24.95" customHeight="1">
@@ -8465,7 +8720,7 @@
         <v>157</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="7">
@@ -8502,7 +8757,7 @@
         <v>67</v>
       </c>
       <c r="N161" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="24.95" customHeight="1">
@@ -8510,7 +8765,7 @@
         <v>158</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="7">
@@ -8547,7 +8802,7 @@
         <v>68</v>
       </c>
       <c r="N162" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="24.95" customHeight="1">
@@ -8555,7 +8810,7 @@
         <v>159</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="7">
@@ -8592,7 +8847,7 @@
         <v>69</v>
       </c>
       <c r="N163" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="24.95" customHeight="1">
@@ -8600,7 +8855,7 @@
         <v>160</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="7">
@@ -8637,7 +8892,7 @@
         <v>70</v>
       </c>
       <c r="N164" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="24.95" customHeight="1">
@@ -8645,7 +8900,7 @@
         <v>161</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="7">
@@ -8682,7 +8937,7 @@
         <v>71</v>
       </c>
       <c r="N165" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="24.95" customHeight="1">
@@ -8690,7 +8945,7 @@
         <v>162</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="7">
@@ -8727,7 +8982,7 @@
         <v>72</v>
       </c>
       <c r="N166" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="24.95" customHeight="1">
@@ -8735,7 +8990,7 @@
         <v>163</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="7">
@@ -8772,7 +9027,7 @@
         <v>73</v>
       </c>
       <c r="N167" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="24.95" customHeight="1">
@@ -8780,7 +9035,7 @@
         <v>164</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="7">
@@ -8817,7 +9072,7 @@
         <v>74</v>
       </c>
       <c r="N168" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="24.95" customHeight="1">
@@ -8825,7 +9080,7 @@
         <v>165</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="7">
@@ -8862,7 +9117,7 @@
         <v>75</v>
       </c>
       <c r="N169" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="24.95" customHeight="1">
@@ -8870,7 +9125,7 @@
         <v>166</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="7">
@@ -8907,7 +9162,7 @@
         <v>76</v>
       </c>
       <c r="N170" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="24.95" customHeight="1">
@@ -8915,7 +9170,7 @@
         <v>167</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="7">
@@ -8952,7 +9207,7 @@
         <v>77</v>
       </c>
       <c r="N171" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="24.95" customHeight="1">
@@ -8960,7 +9215,7 @@
         <v>168</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="7">
@@ -8997,7 +9252,7 @@
         <v>78</v>
       </c>
       <c r="N172" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="24.95" customHeight="1">
@@ -9005,7 +9260,7 @@
         <v>169</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="7">
@@ -9042,7 +9297,7 @@
         <v>79</v>
       </c>
       <c r="N173" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="24.95" customHeight="1">
@@ -9050,7 +9305,7 @@
         <v>170</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="7">
@@ -9087,7 +9342,7 @@
         <v>80</v>
       </c>
       <c r="N174" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="24.95" customHeight="1">
@@ -9095,7 +9350,7 @@
         <v>171</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="7">
@@ -9132,7 +9387,7 @@
         <v>81</v>
       </c>
       <c r="N175" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="24.95" customHeight="1">
@@ -9140,7 +9395,7 @@
         <v>172</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="7">
@@ -9177,7 +9432,7 @@
         <v>82</v>
       </c>
       <c r="N176" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:14" ht="24.95" customHeight="1">
@@ -9185,7 +9440,7 @@
         <v>173</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="7">
@@ -9222,7 +9477,7 @@
         <v>83</v>
       </c>
       <c r="N177" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:14" ht="24.95" customHeight="1">
@@ -9230,7 +9485,7 @@
         <v>174</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="7">
@@ -9267,7 +9522,7 @@
         <v>84</v>
       </c>
       <c r="N178" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:14" ht="24.95" customHeight="1">
@@ -9275,7 +9530,7 @@
         <v>175</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="7">
@@ -9312,7 +9567,7 @@
         <v>85</v>
       </c>
       <c r="N179" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="24.95" customHeight="1">
@@ -9320,7 +9575,7 @@
         <v>176</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C180" s="6"/>
       <c r="D180" s="7">
@@ -9357,7 +9612,7 @@
         <v>86</v>
       </c>
       <c r="N180" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:14" ht="24.95" customHeight="1">
@@ -9365,7 +9620,7 @@
         <v>177</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C181" s="6"/>
       <c r="D181" s="7">
@@ -9402,7 +9657,7 @@
         <v>87</v>
       </c>
       <c r="N181" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="24.95" customHeight="1">
@@ -9410,7 +9665,7 @@
         <v>178</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="7">
@@ -9447,7 +9702,7 @@
         <v>88</v>
       </c>
       <c r="N182" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="24.95" customHeight="1">
@@ -9455,7 +9710,7 @@
         <v>179</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="7">
@@ -9492,7 +9747,7 @@
         <v>89</v>
       </c>
       <c r="N183" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="24.95" customHeight="1">
@@ -9500,7 +9755,7 @@
         <v>180</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="7">
@@ -9545,7 +9800,7 @@
         <v>181</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="7">
@@ -9590,7 +9845,7 @@
         <v>182</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="7">
@@ -9635,7 +9890,7 @@
         <v>183</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C187" s="6"/>
       <c r="D187" s="7">
@@ -9680,7 +9935,7 @@
         <v>184</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="7">
@@ -9725,7 +9980,7 @@
         <v>185</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="7">
@@ -9770,7 +10025,7 @@
         <v>186</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="7">
@@ -9815,7 +10070,7 @@
         <v>187</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="7">
@@ -9860,7 +10115,7 @@
         <v>188</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C192" s="6"/>
       <c r="D192" s="7">
@@ -9905,7 +10160,7 @@
         <v>189</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="7">
@@ -9950,7 +10205,7 @@
         <v>190</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C194" s="6"/>
       <c r="D194" s="7">
@@ -9995,7 +10250,7 @@
         <v>191</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="7">
@@ -10040,7 +10295,7 @@
         <v>192</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="7">
@@ -10085,7 +10340,7 @@
         <v>193</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="7">
@@ -10130,7 +10385,7 @@
         <v>194</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C198" s="6"/>
       <c r="D198" s="7">
@@ -10175,7 +10430,7 @@
         <v>195</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="7">
@@ -10220,7 +10475,7 @@
         <v>196</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="7">
@@ -10265,7 +10520,7 @@
         <v>197</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C201" s="6"/>
       <c r="D201" s="7">
@@ -10310,7 +10565,7 @@
         <v>198</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="7">
@@ -10355,7 +10610,7 @@
         <v>199</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C203" s="6"/>
       <c r="D203" s="7">
@@ -10400,7 +10655,7 @@
         <v>200</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="7">
@@ -10445,7 +10700,7 @@
         <v>201</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C205" s="6"/>
       <c r="D205" s="7">
@@ -10490,7 +10745,7 @@
         <v>202</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C206" s="6"/>
       <c r="D206" s="7">
@@ -10535,7 +10790,7 @@
         <v>203</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C207" s="6"/>
       <c r="D207" s="7">
@@ -10580,7 +10835,7 @@
         <v>204</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C208" s="6"/>
       <c r="D208" s="7">
@@ -10625,7 +10880,7 @@
         <v>205</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="7">
@@ -10670,7 +10925,7 @@
         <v>206</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C210" s="6"/>
       <c r="D210" s="7">
@@ -10715,7 +10970,7 @@
         <v>207</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="7">
@@ -10760,7 +11015,7 @@
         <v>208</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C212" s="6"/>
       <c r="D212" s="7">
@@ -10805,7 +11060,7 @@
         <v>209</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="7">
@@ -10850,7 +11105,7 @@
         <v>210</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C214" s="6"/>
       <c r="D214" s="7">
@@ -10895,7 +11150,7 @@
         <v>211</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="7">
@@ -10940,7 +11195,7 @@
         <v>212</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C216" s="6"/>
       <c r="D216" s="7">
@@ -10985,7 +11240,7 @@
         <v>213</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C217" s="6"/>
       <c r="D217" s="7">
@@ -11030,7 +11285,7 @@
         <v>214</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C218" s="6"/>
       <c r="D218" s="7">
@@ -11075,7 +11330,7 @@
         <v>215</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C219" s="6"/>
       <c r="D219" s="7">
@@ -11120,7 +11375,7 @@
         <v>216</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="7">
@@ -11165,7 +11420,7 @@
         <v>217</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C221" s="6"/>
       <c r="D221" s="7">
@@ -11210,7 +11465,7 @@
         <v>218</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="7">
@@ -11255,7 +11510,7 @@
         <v>219</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="7">
@@ -11300,7 +11555,7 @@
         <v>220</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="7">
@@ -11345,7 +11600,7 @@
         <v>221</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="7">
@@ -11390,7 +11645,7 @@
         <v>222</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C226" s="6"/>
       <c r="D226" s="7">
@@ -11435,7 +11690,7 @@
         <v>223</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="7">
@@ -11480,7 +11735,7 @@
         <v>224</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C228" s="6"/>
       <c r="D228" s="7">
@@ -11525,7 +11780,7 @@
         <v>225</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C229" s="6"/>
       <c r="D229" s="7">
@@ -11570,7 +11825,7 @@
         <v>226</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C230" s="6"/>
       <c r="D230" s="7">
@@ -11615,7 +11870,7 @@
         <v>227</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C231" s="6"/>
       <c r="D231" s="7">
@@ -11660,7 +11915,7 @@
         <v>228</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C232" s="6"/>
       <c r="D232" s="7">
@@ -11705,7 +11960,7 @@
         <v>229</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C233" s="6"/>
       <c r="D233" s="7">
@@ -11750,7 +12005,7 @@
         <v>230</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C234" s="6"/>
       <c r="D234" s="7">
@@ -11795,7 +12050,7 @@
         <v>231</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C235" s="6"/>
       <c r="D235" s="7">
@@ -11840,7 +12095,7 @@
         <v>232</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C236" s="6"/>
       <c r="D236" s="7">
@@ -11885,7 +12140,7 @@
         <v>233</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="7">
@@ -11930,7 +12185,7 @@
         <v>234</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C238" s="6"/>
       <c r="D238" s="7">
@@ -11975,7 +12230,7 @@
         <v>235</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C239" s="6"/>
       <c r="D239" s="7">
@@ -12020,7 +12275,7 @@
         <v>236</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C240" s="6"/>
       <c r="D240" s="7">
@@ -12065,7 +12320,7 @@
         <v>237</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C241" s="6"/>
       <c r="D241" s="7">
@@ -12110,7 +12365,7 @@
         <v>238</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C242" s="6"/>
       <c r="D242" s="7">
@@ -12155,7 +12410,7 @@
         <v>239</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C243" s="6"/>
       <c r="D243" s="7">
@@ -12200,7 +12455,7 @@
         <v>240</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C244" s="6"/>
       <c r="D244" s="7">
@@ -12245,7 +12500,7 @@
         <v>241</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C245" s="6"/>
       <c r="D245" s="7">
@@ -12290,7 +12545,7 @@
         <v>242</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C246" s="6"/>
       <c r="D246" s="7">
@@ -12335,7 +12590,7 @@
         <v>243</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C247" s="6"/>
       <c r="D247" s="7">
@@ -12380,7 +12635,7 @@
         <v>244</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C248" s="6"/>
       <c r="D248" s="7">
@@ -12425,7 +12680,7 @@
         <v>245</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C249" s="6"/>
       <c r="D249" s="7">
@@ -12470,7 +12725,7 @@
         <v>246</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C250" s="6"/>
       <c r="D250" s="7">
@@ -12515,7 +12770,7 @@
         <v>247</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C251" s="6"/>
       <c r="D251" s="7">
@@ -12560,7 +12815,7 @@
         <v>248</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C252" s="6"/>
       <c r="D252" s="7">
@@ -12605,7 +12860,7 @@
         <v>249</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C253" s="6"/>
       <c r="D253" s="7">
@@ -12650,7 +12905,7 @@
         <v>250</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C254" s="6"/>
       <c r="D254" s="7">
@@ -12695,7 +12950,7 @@
         <v>251</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C255" s="6"/>
       <c r="D255" s="7">
@@ -12740,7 +12995,7 @@
         <v>252</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C256" s="6"/>
       <c r="D256" s="7">
@@ -12785,7 +13040,7 @@
         <v>253</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C257" s="6"/>
       <c r="D257" s="7">
@@ -12830,7 +13085,7 @@
         <v>254</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C258" s="6"/>
       <c r="D258" s="7">
@@ -12875,7 +13130,7 @@
         <v>255</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C259" s="6"/>
       <c r="D259" s="7">
@@ -12920,7 +13175,7 @@
         <v>256</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C260" s="6"/>
       <c r="D260" s="7">
@@ -12965,7 +13220,7 @@
         <v>257</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C261" s="6"/>
       <c r="D261" s="7">
@@ -13010,7 +13265,7 @@
         <v>258</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C262" s="6"/>
       <c r="D262" s="7">
@@ -13055,7 +13310,7 @@
         <v>259</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C263" s="6"/>
       <c r="D263" s="7">
@@ -13100,7 +13355,7 @@
         <v>260</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C264" s="6"/>
       <c r="D264" s="7">
@@ -13145,7 +13400,7 @@
         <v>261</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C265" s="6"/>
       <c r="D265" s="7">
@@ -13190,7 +13445,7 @@
         <v>262</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C266" s="6"/>
       <c r="D266" s="7">
@@ -13235,7 +13490,7 @@
         <v>263</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C267" s="6"/>
       <c r="D267" s="7">
@@ -13280,7 +13535,7 @@
         <v>264</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C268" s="6"/>
       <c r="D268" s="7">
@@ -13325,7 +13580,7 @@
         <v>265</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C269" s="6"/>
       <c r="D269" s="7">
@@ -13370,7 +13625,7 @@
         <v>266</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C270" s="6"/>
       <c r="D270" s="7">
@@ -13415,7 +13670,7 @@
         <v>267</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C271" s="6"/>
       <c r="D271" s="7">
@@ -13460,7 +13715,7 @@
         <v>268</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C272" s="6"/>
       <c r="D272" s="7">
@@ -13505,7 +13760,7 @@
         <v>269</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C273" s="6"/>
       <c r="D273" s="7">
@@ -13550,7 +13805,7 @@
         <v>270</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C274" s="6"/>
       <c r="D274" s="7">
@@ -13595,7 +13850,7 @@
         <v>271</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C275" s="6"/>
       <c r="D275" s="7">
@@ -13640,7 +13895,7 @@
         <v>272</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C276" s="6"/>
       <c r="D276" s="7">
@@ -13685,7 +13940,7 @@
         <v>273</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C277" s="6"/>
       <c r="D277" s="7">
@@ -13730,7 +13985,7 @@
         <v>274</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C278" s="6"/>
       <c r="D278" s="7">
@@ -13775,7 +14030,7 @@
         <v>275</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C279" s="6"/>
       <c r="D279" s="7">
@@ -13820,7 +14075,7 @@
         <v>276</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C280" s="6"/>
       <c r="D280" s="7">
@@ -13865,7 +14120,7 @@
         <v>277</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C281" s="6"/>
       <c r="D281" s="7">
@@ -13910,7 +14165,7 @@
         <v>278</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C282" s="6"/>
       <c r="D282" s="7">
@@ -13955,7 +14210,7 @@
         <v>279</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C283" s="6"/>
       <c r="D283" s="7">
@@ -14000,7 +14255,7 @@
         <v>280</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C284" s="6"/>
       <c r="D284" s="7">
@@ -14045,7 +14300,7 @@
         <v>281</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C285" s="6"/>
       <c r="D285" s="7">
@@ -14090,7 +14345,7 @@
         <v>282</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C286" s="6"/>
       <c r="D286" s="7">
@@ -14135,7 +14390,7 @@
         <v>283</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C287" s="6"/>
       <c r="D287" s="7">
@@ -14180,7 +14435,7 @@
         <v>284</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C288" s="6"/>
       <c r="D288" s="7">
@@ -14225,7 +14480,7 @@
         <v>285</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C289" s="6"/>
       <c r="D289" s="7">
@@ -14270,7 +14525,7 @@
         <v>286</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C290" s="6"/>
       <c r="D290" s="7">
@@ -14315,7 +14570,7 @@
         <v>287</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C291" s="6"/>
       <c r="D291" s="7">
@@ -14360,7 +14615,7 @@
         <v>288</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C292" s="6"/>
       <c r="D292" s="7">
@@ -14405,7 +14660,7 @@
         <v>289</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C293" s="6"/>
       <c r="D293" s="7">
@@ -14450,7 +14705,7 @@
         <v>290</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C294" s="6"/>
       <c r="D294" s="7">
@@ -14495,7 +14750,7 @@
         <v>291</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C295" s="6"/>
       <c r="D295" s="7">
@@ -14540,7 +14795,7 @@
         <v>292</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C296" s="6"/>
       <c r="D296" s="7">
@@ -14585,7 +14840,7 @@
         <v>293</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C297" s="6"/>
       <c r="D297" s="7">
@@ -14630,7 +14885,7 @@
         <v>294</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C298" s="6"/>
       <c r="D298" s="7">
@@ -14675,7 +14930,7 @@
         <v>295</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C299" s="6"/>
       <c r="D299" s="7">
@@ -14720,7 +14975,7 @@
         <v>296</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C300" s="6"/>
       <c r="D300" s="7">
@@ -14765,7 +15020,7 @@
         <v>297</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C301" s="6"/>
       <c r="D301" s="7">
@@ -14810,7 +15065,7 @@
         <v>298</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C302" s="6"/>
       <c r="D302" s="7">
@@ -14855,7 +15110,7 @@
         <v>299</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C303" s="6"/>
       <c r="D303" s="7">
@@ -14900,7 +15155,7 @@
         <v>300</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C304" s="6"/>
       <c r="D304" s="7">
@@ -14945,7 +15200,7 @@
         <v>301</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C305" s="6"/>
       <c r="D305" s="7">
@@ -14990,7 +15245,7 @@
         <v>302</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C306" s="6"/>
       <c r="D306" s="7">
@@ -15035,7 +15290,7 @@
         <v>303</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C307" s="6"/>
       <c r="D307" s="7">
@@ -15080,7 +15335,7 @@
         <v>304</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C308" s="6"/>
       <c r="D308" s="7">
@@ -15125,7 +15380,7 @@
         <v>305</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C309" s="6"/>
       <c r="D309" s="7">
@@ -15170,7 +15425,7 @@
         <v>306</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C310" s="6"/>
       <c r="D310" s="7">
@@ -15215,7 +15470,7 @@
         <v>307</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C311" s="6"/>
       <c r="D311" s="7">
@@ -15260,7 +15515,7 @@
         <v>308</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C312" s="6"/>
       <c r="D312" s="7">
@@ -15305,7 +15560,7 @@
         <v>309</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C313" s="6"/>
       <c r="D313" s="7">
@@ -15350,7 +15605,7 @@
         <v>310</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C314" s="6"/>
       <c r="D314" s="7">
@@ -15395,7 +15650,7 @@
         <v>311</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C315" s="6"/>
       <c r="D315" s="7">
@@ -15440,7 +15695,7 @@
         <v>312</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C316" s="6"/>
       <c r="D316" s="7">
@@ -15485,7 +15740,7 @@
         <v>313</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C317" s="6"/>
       <c r="D317" s="7">
@@ -15530,7 +15785,7 @@
         <v>314</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C318" s="6"/>
       <c r="D318" s="7">
@@ -15575,7 +15830,7 @@
         <v>315</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C319" s="6"/>
       <c r="D319" s="7">
@@ -15620,7 +15875,7 @@
         <v>316</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C320" s="6"/>
       <c r="D320" s="7">
@@ -15665,7 +15920,7 @@
         <v>317</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C321" s="6"/>
       <c r="D321" s="7">
@@ -15710,7 +15965,7 @@
         <v>318</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C322" s="6"/>
       <c r="D322" s="7">
@@ -15755,7 +16010,7 @@
         <v>319</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C323" s="6"/>
       <c r="D323" s="7">
@@ -15800,7 +16055,7 @@
         <v>320</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C324" s="6"/>
       <c r="D324" s="7">
@@ -15845,7 +16100,7 @@
         <v>321</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C325" s="6"/>
       <c r="D325" s="7">
@@ -15890,7 +16145,7 @@
         <v>322</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C326" s="6"/>
       <c r="D326" s="7">
@@ -15935,7 +16190,7 @@
         <v>323</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C327" s="6"/>
       <c r="D327" s="7">
@@ -15980,7 +16235,7 @@
         <v>324</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C328" s="6"/>
       <c r="D328" s="7">
@@ -16025,7 +16280,7 @@
         <v>325</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C329" s="6"/>
       <c r="D329" s="7">
@@ -16070,7 +16325,7 @@
         <v>326</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C330" s="6"/>
       <c r="D330" s="7">
@@ -16115,7 +16370,7 @@
         <v>327</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C331" s="6"/>
       <c r="D331" s="7">
@@ -16160,7 +16415,7 @@
         <v>328</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C332" s="6"/>
       <c r="D332" s="7">
@@ -16205,7 +16460,7 @@
         <v>329</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C333" s="6"/>
       <c r="D333" s="7">
@@ -16250,7 +16505,7 @@
         <v>330</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C334" s="6"/>
       <c r="D334" s="7">
@@ -16295,7 +16550,7 @@
         <v>331</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C335" s="6"/>
       <c r="D335" s="7">
@@ -16340,7 +16595,7 @@
         <v>332</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C336" s="6"/>
       <c r="D336" s="7">
@@ -16385,7 +16640,7 @@
         <v>333</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C337" s="6"/>
       <c r="D337" s="7">
@@ -16430,7 +16685,7 @@
         <v>334</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C338" s="6"/>
       <c r="D338" s="7">
@@ -16475,7 +16730,7 @@
         <v>335</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C339" s="6"/>
       <c r="D339" s="7">
@@ -16520,7 +16775,7 @@
         <v>336</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C340" s="6"/>
       <c r="D340" s="7">
@@ -16565,7 +16820,7 @@
         <v>337</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C341" s="6"/>
       <c r="D341" s="7">
@@ -16610,7 +16865,7 @@
         <v>338</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C342" s="6"/>
       <c r="D342" s="7">
@@ -16655,7 +16910,7 @@
         <v>339</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C343" s="6"/>
       <c r="D343" s="7">
@@ -16700,7 +16955,7 @@
         <v>340</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C344" s="6"/>
       <c r="D344" s="7">
@@ -16745,7 +17000,7 @@
         <v>341</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C345" s="6"/>
       <c r="D345" s="7">
@@ -16790,7 +17045,7 @@
         <v>342</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C346" s="6"/>
       <c r="D346" s="7">
@@ -16835,7 +17090,7 @@
         <v>343</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C347" s="6"/>
       <c r="D347" s="7">
@@ -16880,7 +17135,7 @@
         <v>344</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C348" s="6"/>
       <c r="D348" s="7">
@@ -16925,7 +17180,7 @@
         <v>345</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C349" s="6"/>
       <c r="D349" s="7">
@@ -16970,7 +17225,7 @@
         <v>346</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C350" s="6"/>
       <c r="D350" s="7">
@@ -17015,7 +17270,7 @@
         <v>347</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C351" s="6"/>
       <c r="D351" s="7">
@@ -17060,7 +17315,7 @@
         <v>348</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C352" s="6"/>
       <c r="D352" s="7">
@@ -17105,7 +17360,7 @@
         <v>349</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C353" s="6"/>
       <c r="D353" s="7">
@@ -17150,7 +17405,7 @@
         <v>350</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C354" s="6"/>
       <c r="D354" s="7">
@@ -17195,7 +17450,7 @@
         <v>351</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C355" s="6"/>
       <c r="D355" s="7">
@@ -17240,7 +17495,7 @@
         <v>352</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="7">
@@ -17285,7 +17540,7 @@
         <v>353</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C357" s="6"/>
       <c r="D357" s="7">
@@ -17330,7 +17585,7 @@
         <v>354</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C358" s="6"/>
       <c r="D358" s="7">
@@ -17375,7 +17630,7 @@
         <v>355</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C359" s="6"/>
       <c r="D359" s="7">
@@ -17420,7 +17675,7 @@
         <v>356</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C360" s="6"/>
       <c r="D360" s="7">
@@ -17465,7 +17720,7 @@
         <v>357</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C361" s="6"/>
       <c r="D361" s="7">
@@ -17510,7 +17765,7 @@
         <v>358</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C362" s="6"/>
       <c r="D362" s="7">
@@ -17555,7 +17810,7 @@
         <v>359</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C363" s="6"/>
       <c r="D363" s="7">
@@ -17600,7 +17855,7 @@
         <v>360</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C364" s="6"/>
       <c r="D364" s="7">
@@ -17645,7 +17900,7 @@
         <v>361</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C365" s="6"/>
       <c r="D365" s="7">
@@ -17690,7 +17945,7 @@
         <v>362</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C366" s="6"/>
       <c r="D366" s="7">
@@ -17735,7 +17990,7 @@
         <v>363</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C367" s="6"/>
       <c r="D367" s="7">
@@ -17780,7 +18035,7 @@
         <v>364</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C368" s="6"/>
       <c r="D368" s="7">
@@ -17825,7 +18080,7 @@
         <v>365</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C369" s="6"/>
       <c r="D369" s="7">

--- a/StudyProgress/Ebbinghaus-Android.xlsx
+++ b/StudyProgress/Ebbinghaus-Android.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="9825"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -74,10 +74,6 @@
   </si>
   <si>
     <t>艾宾浩斯遗忘曲线复习计划表</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章，第二章</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -295,6 +291,10 @@
   </si>
   <si>
     <t>20 耳洞</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章，13-序列化（S， Parcelable），定时任务（Timer，Alarm），PendingIntent，Notification</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1043,6 +1043,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1065,12 +1071,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1486,101 +1486,101 @@
   <dimension ref="A1:Q369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64" customWidth="1"/>
+    <col min="3" max="3" width="92" customWidth="1"/>
     <col min="4" max="14" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="51" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="19" t="s">
+      <c r="P2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="19" t="s">
+    </row>
+    <row r="3" spans="1:17" ht="41.25" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="41.25" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="19" t="s">
+      <c r="P3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="19" t="s">
-        <v>36</v>
-      </c>
       <c r="Q3" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="47.25" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1615,13 +1615,13 @@
         <v>15</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1">
@@ -1629,10 +1629,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="18">
-        <v>43402</v>
+        <v>43413</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D5" s="13">
         <f>A5</f>
@@ -1671,13 +1671,13 @@
         <v>17</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="21" t="s">
         <v>38</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="24.95" customHeight="1">
@@ -1686,10 +1686,10 @@
       </c>
       <c r="B6" s="9">
         <f>B5+1</f>
-        <v>43403</v>
+        <v>43414</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" ref="D6:D69" si="0">A6</f>
@@ -1728,13 +1728,13 @@
         <v>17</v>
       </c>
       <c r="O6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="Q6" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="24.95" customHeight="1">
@@ -1743,10 +1743,10 @@
       </c>
       <c r="B7" s="9">
         <f t="shared" ref="B7:B16" si="3">B6+1</f>
-        <v>43404</v>
+        <v>43415</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
@@ -1785,13 +1785,13 @@
         <v>17</v>
       </c>
       <c r="O7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="Q7" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="24.95" customHeight="1">
@@ -1800,10 +1800,10 @@
       </c>
       <c r="B8" s="9">
         <f t="shared" si="3"/>
-        <v>43405</v>
+        <v>43416</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
@@ -1841,14 +1841,14 @@
       <c r="N8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="Q8" s="23" t="s">
         <v>51</v>
-      </c>
-      <c r="Q8" s="31" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="24.95" customHeight="1">
@@ -1857,10 +1857,10 @@
       </c>
       <c r="B9" s="9">
         <f t="shared" si="3"/>
-        <v>43406</v>
+        <v>43417</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
@@ -1905,10 +1905,10 @@
       </c>
       <c r="B10" s="9">
         <f t="shared" si="3"/>
-        <v>43407</v>
+        <v>43418</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
@@ -1953,10 +1953,10 @@
       </c>
       <c r="B11" s="9">
         <f t="shared" si="3"/>
-        <v>43408</v>
+        <v>43419</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
@@ -2001,10 +2001,10 @@
       </c>
       <c r="B12" s="9">
         <f t="shared" si="3"/>
-        <v>43409</v>
+        <v>43420</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
@@ -2049,10 +2049,10 @@
       </c>
       <c r="B13" s="9">
         <f t="shared" si="3"/>
-        <v>43410</v>
+        <v>43421</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
@@ -2097,10 +2097,10 @@
       </c>
       <c r="B14" s="9">
         <f t="shared" si="3"/>
-        <v>43411</v>
+        <v>43422</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
@@ -2145,10 +2145,10 @@
       </c>
       <c r="B15" s="9">
         <f t="shared" si="3"/>
-        <v>43412</v>
+        <v>43423</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
@@ -2193,10 +2193,10 @@
       </c>
       <c r="B16" s="9">
         <f t="shared" si="3"/>
-        <v>43413</v>
+        <v>43424</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="0"/>

--- a/StudyProgress/Ebbinghaus-Android.xlsx
+++ b/StudyProgress/Ebbinghaus-Android.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="53">
   <si>
     <t>序号</t>
   </si>
@@ -74,10 +74,6 @@
   </si>
   <si>
     <t>艾宾浩斯遗忘曲线复习计划表</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三章</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -218,10 +214,6 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>06 灵鹿</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>10 棒球</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -294,7 +286,15 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>第一章，13-序列化（S， Parcelable），定时任务（Timer，Alarm），PendingIntent，Notification</t>
+    <t>06 领路</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>06数据存储-（文件，SharedPreference） 13-序列化（S， Parcelable），定时任务（Timer，Alarm），PendingIntent，Notification</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>06数据存储-（SQLite） 02 活动，Intent PendingIntent 03 UI</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -976,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,9 +1009,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1049,6 +1046,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1072,6 +1072,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1486,14 +1489,14 @@
   <dimension ref="A1:Q369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92" customWidth="1"/>
+    <col min="3" max="3" width="115.25" customWidth="1"/>
     <col min="4" max="14" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1517,7 +1520,7 @@
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1532,14 +1535,14 @@
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="Q2" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="41.25" customHeight="1">
@@ -1567,14 +1570,14 @@
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
       <c r="N3" s="29"/>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>41</v>
+      <c r="Q3" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="47.25" customHeight="1">
@@ -1614,35 +1617,35 @@
       <c r="N4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>43</v>
+      <c r="O4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A5" s="10">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>43413</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="12">
         <f>A5</f>
         <v>1</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <f>A5</f>
         <v>1</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <f>A5</f>
         <v>1</v>
       </c>
@@ -1670,40 +1673,40 @@
       <c r="N5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>38</v>
+      <c r="O5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="24.95" customHeight="1">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="17">
         <f>B5+1</f>
         <v>43414</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="12">
         <f t="shared" ref="D6:D69" si="0">A6</f>
         <v>2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="12">
         <f t="shared" ref="E6:E69" si="1">A6</f>
         <v>2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="12">
         <f t="shared" ref="F6:F69" si="2">A6</f>
         <v>2</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -1727,14 +1730,14 @@
       <c r="N6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>45</v>
+      <c r="O6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="24.95" customHeight="1">
@@ -1742,11 +1745,11 @@
         <v>3</v>
       </c>
       <c r="B7" s="9">
-        <f t="shared" ref="B7:B16" si="3">B6+1</f>
+        <f t="shared" ref="B7:B32" si="3">B6+1</f>
         <v>43415</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
@@ -1784,14 +1787,14 @@
       <c r="N7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="20" t="s">
         <v>46</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="24.95" customHeight="1">
@@ -1803,7 +1806,7 @@
         <v>43416</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
@@ -1841,14 +1844,14 @@
       <c r="N8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="P8" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="23" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="24.95" customHeight="1">
@@ -1860,7 +1863,7 @@
         <v>43417</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
@@ -1908,7 +1911,7 @@
         <v>43418</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
@@ -1956,7 +1959,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
@@ -2004,7 +2007,7 @@
         <v>43420</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
@@ -2052,7 +2055,7 @@
         <v>43421</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
@@ -2100,7 +2103,7 @@
         <v>43422</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
@@ -2148,7 +2151,7 @@
         <v>43423</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
@@ -2196,7 +2199,7 @@
         <v>43424</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="0"/>
@@ -2239,8 +2242,9 @@
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>16</v>
+      <c r="B17" s="9">
+        <f t="shared" si="3"/>
+        <v>43425</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7">
@@ -2284,8 +2288,9 @@
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>16</v>
+      <c r="B18" s="9">
+        <f t="shared" si="3"/>
+        <v>43426</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7">
@@ -2329,8 +2334,9 @@
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>16</v>
+      <c r="B19" s="9">
+        <f t="shared" si="3"/>
+        <v>43427</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="7">
@@ -2374,8 +2380,9 @@
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
+      <c r="B20" s="9">
+        <f t="shared" si="3"/>
+        <v>43428</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="7">
@@ -2419,8 +2426,9 @@
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>16</v>
+      <c r="B21" s="9">
+        <f t="shared" si="3"/>
+        <v>43429</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="7">
@@ -2464,8 +2472,9 @@
       <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
+      <c r="B22" s="9">
+        <f t="shared" si="3"/>
+        <v>43430</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="7">
@@ -2509,8 +2518,9 @@
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>16</v>
+      <c r="B23" s="9">
+        <f t="shared" si="3"/>
+        <v>43431</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="7">
@@ -2554,8 +2564,9 @@
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>16</v>
+      <c r="B24" s="9">
+        <f t="shared" si="3"/>
+        <v>43432</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="7">
@@ -2599,8 +2610,9 @@
       <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
+      <c r="B25" s="9">
+        <f t="shared" si="3"/>
+        <v>43433</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="7">
@@ -2644,8 +2656,9 @@
       <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>16</v>
+      <c r="B26" s="9">
+        <f t="shared" si="3"/>
+        <v>43434</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="7">
@@ -2689,8 +2702,9 @@
       <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>16</v>
+      <c r="B27" s="9">
+        <f t="shared" si="3"/>
+        <v>43435</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="7">
@@ -2734,8 +2748,9 @@
       <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>16</v>
+      <c r="B28" s="9">
+        <f t="shared" si="3"/>
+        <v>43436</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="7">
@@ -2779,8 +2794,9 @@
       <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>16</v>
+      <c r="B29" s="9">
+        <f t="shared" si="3"/>
+        <v>43437</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="7">
@@ -2824,8 +2840,9 @@
       <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
+      <c r="B30" s="9">
+        <f t="shared" si="3"/>
+        <v>43438</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="7">
@@ -2869,8 +2886,9 @@
       <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>16</v>
+      <c r="B31" s="9">
+        <f t="shared" si="3"/>
+        <v>43439</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="7">
@@ -2914,44 +2932,45 @@
       <c r="A32" s="10">
         <v>28</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13">
+      <c r="B32" s="9">
+        <f t="shared" si="3"/>
+        <v>43440</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="12">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="12">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="12">
         <v>27</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="12">
         <v>26</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="12">
         <v>24</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="12">
         <v>21</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="12">
         <v>13</v>
       </c>
-      <c r="L32" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N32" s="13" t="s">
+      <c r="L32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3586,47 +3605,47 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A47" s="14">
+      <c r="A47" s="13">
         <v>43</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17">
+      <c r="B47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="16">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="16">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="16">
         <v>42</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="16">
         <v>41</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="16">
         <v>39</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="16">
         <v>36</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K47" s="16">
         <v>28</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="16">
         <v>13</v>
       </c>
-      <c r="M47" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="N47" s="17" t="s">
+      <c r="M47" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="16" t="s">
         <v>17</v>
       </c>
     </row>

--- a/StudyProgress/Ebbinghaus-Android.xlsx
+++ b/StudyProgress/Ebbinghaus-Android.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="25">
   <si>
     <t>序号</t>
   </si>
@@ -74,247 +74,45 @@
   </si>
   <si>
     <t>艾宾浩斯遗忘曲线复习计划表</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>第四章</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <t>04 碎片， 05 广播</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>第五章</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <t>07 内容提供者 08 多媒体</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>第六章</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <t>09 网络 10 服务</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>第七章</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <t>06数据存储-（文件，SharedPreference） 
+13-序列化（S， Parcelable），定时任务（Timer，Alarm）</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>第八章</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <t>06数据存储-（SQLite） 
+02 活动，Intent PendingIntent（Alarm，Notification，SMS）
+03 UI - ListView 性能提高</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>第九章</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十章</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十一章</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十二章</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十三章</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>项目：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="仿宋_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                                   </t>
-    </r>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0 眼睛</t>
-    </r>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1 羚羊</t>
-    </r>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2 灵儿</t>
-    </r>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3 灵山</t>
-    </r>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4 零食</t>
-    </r>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 棒球</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 筷子</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 婴儿</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 医生</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>05 领舞</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>07 邦德</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>08 篱笆</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>09 灵鹫</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 钥匙</t>
-    </r>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 鹦鹉</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 杨柳</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>17 仪器</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>18 泥巴</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>19 药酒</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 耳洞</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>06 领路</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>06数据存储-（文件，SharedPreference） 13-序列化（S， Parcelable），定时任务（Timer，Alarm），PendingIntent，Notification</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>06数据存储-（SQLite） 02 活动，Intent PendingIntent 03 UI</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <t>01羚羊 02灵儿 03灵山 04零食 05领悟 06领路 07邦德 08葫芦 09菱角 10棒球 11筷子 12婴儿 13医生 14钥匙 15鹦鹉 16杨柳 17仪器 18泥巴 19药酒 20耳洞</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="仿宋_GB2312"/>
       <charset val="134"/>
     </font>
     <font>
@@ -625,7 +423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -827,254 +625,219 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1486,104 +1249,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q369"/>
+  <dimension ref="A1:N369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="115.25" customWidth="1"/>
+    <col min="3" max="3" width="62" customWidth="1"/>
     <col min="4" max="14" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="51" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:14" ht="51" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-    </row>
-    <row r="2" spans="1:17" ht="21.75" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="41.25" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="1:14" ht="41.25" customHeight="1">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="47.25" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="26"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+    </row>
+    <row r="4" spans="1:14" ht="47.25" customHeight="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1617,25 +1362,16 @@
       <c r="N4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A5" s="23">
+    </row>
+    <row r="5" spans="1:14" ht="42" customHeight="1">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
       <c r="B5" s="17">
         <v>43413</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>51</v>
+      <c r="C5" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="12">
         <f>A5</f>
@@ -1673,17 +1409,8 @@
       <c r="N5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="24.95" customHeight="1">
+    </row>
+    <row r="6" spans="1:14" ht="56.25" customHeight="1">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1691,8 +1418,8 @@
         <f>B5+1</f>
         <v>43414</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>52</v>
+      <c r="C6" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" ref="D6:D69" si="0">A6</f>
@@ -1730,43 +1457,34 @@
       <c r="N6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="24.95" customHeight="1">
+    </row>
+    <row r="7" spans="1:14" ht="24.95" customHeight="1">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="17">
         <f t="shared" ref="B7:B32" si="3">B6+1</f>
         <v>43415</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="12">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="12">
         <v>2</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="12">
         <v>1</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -1787,17 +1505,8 @@
       <c r="N7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="24.95" customHeight="1">
+    </row>
+    <row r="8" spans="1:14" ht="24.95" customHeight="1">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1844,17 +1553,8 @@
       <c r="N8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="24.95" customHeight="1">
+    </row>
+    <row r="9" spans="1:14" ht="24.95" customHeight="1">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1902,7 +1602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="24.95" customHeight="1">
+    <row r="10" spans="1:14" ht="24.95" customHeight="1">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1910,9 +1610,7 @@
         <f t="shared" si="3"/>
         <v>43418</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1950,7 +1648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="24.95" customHeight="1">
+    <row r="11" spans="1:14" ht="24.95" customHeight="1">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1958,9 +1656,7 @@
         <f t="shared" si="3"/>
         <v>43419</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1998,7 +1694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="24.95" customHeight="1">
+    <row r="12" spans="1:14" ht="24.95" customHeight="1">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -2006,9 +1702,7 @@
         <f t="shared" si="3"/>
         <v>43420</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2046,7 +1740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="24.95" customHeight="1">
+    <row r="13" spans="1:14" ht="24.95" customHeight="1">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -2054,9 +1748,7 @@
         <f t="shared" si="3"/>
         <v>43421</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2094,7 +1786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="24.95" customHeight="1">
+    <row r="14" spans="1:14" ht="24.95" customHeight="1">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -2102,9 +1794,7 @@
         <f t="shared" si="3"/>
         <v>43422</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2142,7 +1832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="24.95" customHeight="1">
+    <row r="15" spans="1:14" ht="24.95" customHeight="1">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -2150,9 +1840,7 @@
         <f t="shared" si="3"/>
         <v>43423</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2190,7 +1878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="24.95" customHeight="1">
+    <row r="16" spans="1:14" ht="24.95" customHeight="1">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -2198,9 +1886,7 @@
         <f t="shared" si="3"/>
         <v>43424</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -18149,7 +17835,7 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2361111111111111" right="0.2361111111111111" top="0.31458333333333333" bottom="0.40972222222222221" header="0.31458333333333333" footer="0.16944444444444445"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>

--- a/StudyProgress/Ebbinghaus-Android.xlsx
+++ b/StudyProgress/Ebbinghaus-Android.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="9825"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -81,14 +81,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>07 内容提供者 08 多媒体</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>09 网络 10 服务</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>06数据存储-（文件，SharedPreference） 
 13-序列化（S， Parcelable），定时任务（Timer，Alarm）</t>
     <phoneticPr fontId="21" type="noConversion"/>
@@ -101,6 +93,14 @@
   </si>
   <si>
     <t>01羚羊 02灵儿 03灵山 04零食 05领悟 06领路 07邦德 08葫芦 09菱角 10棒球 11筷子 12婴儿 13医生 14钥匙 15鹦鹉 16杨柳 17仪器 18泥巴 19药酒 20耳洞</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>09 网络</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>07 内容提供者 08 多媒体 10 服务</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -812,6 +812,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,9 +838,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:N369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1264,71 +1264,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="51" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A2" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="A2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="41.25" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14" ht="47.25" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1370,8 +1370,8 @@
       <c r="B5" s="17">
         <v>43413</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>22</v>
+      <c r="C5" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="12">
         <f>A5</f>
@@ -1418,8 +1418,8 @@
         <f>B5+1</f>
         <v>43414</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>23</v>
+      <c r="C6" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" ref="D6:D69" si="0">A6</f>
@@ -1510,29 +1510,29 @@
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="17">
         <f t="shared" si="3"/>
         <v>43416</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="12">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="12">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="12">
         <v>3</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="12">
         <v>2</v>
       </c>
       <c r="I8" s="7" t="s">
@@ -1563,7 +1563,7 @@
         <v>43417</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>

--- a/StudyProgress/Ebbinghaus-Android.xlsx
+++ b/StudyProgress/Ebbinghaus-Android.xlsx
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:N369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1558,32 +1558,32 @@
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="17">
         <f t="shared" si="3"/>
         <v>43417</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="12">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="12">
         <v>4</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="12">
         <v>3</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="12">
         <v>1</v>
       </c>
       <c r="J9" s="7" t="s">

--- a/StudyProgress/Ebbinghaus-Android.xlsx
+++ b/StudyProgress/Ebbinghaus-Android.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="27">
   <si>
     <t>序号</t>
   </si>
@@ -101,6 +101,14 @@
   </si>
   <si>
     <t>07 内容提供者 08 多媒体 10 服务</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -1252,7 +1260,7 @@
   <dimension ref="A1:N369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1606,30 +1614,32 @@
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="17">
         <f t="shared" si="3"/>
         <v>43418</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7">
+      <c r="C10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="12">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="12">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="12">
         <v>5</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="12">
         <v>4</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="12">
         <v>2</v>
       </c>
       <c r="J10" s="7" t="s">
@@ -1656,7 +1666,9 @@
         <f t="shared" si="3"/>
         <v>43419</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>7</v>

--- a/StudyProgress/Ebbinghaus-Android.xlsx
+++ b/StudyProgress/Ebbinghaus-Android.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="27">
   <si>
     <t>序号</t>
   </si>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:N369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1662,32 +1662,32 @@
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="17">
         <f t="shared" si="3"/>
         <v>43419</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="12">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="12">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="12">
         <v>6</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="12">
         <v>5</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="12">
         <v>3</v>
       </c>
       <c r="J11" s="7" t="s">
@@ -1710,33 +1710,35 @@
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="17">
         <f t="shared" si="3"/>
         <v>43420</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7">
+      <c r="C12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="12">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="12">
         <v>7</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="12">
         <v>6</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="12">
         <v>4</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="12">
         <v>1</v>
       </c>
       <c r="K12" s="7" t="s">

--- a/StudyProgress/Ebbinghaus-Android.xlsx
+++ b/StudyProgress/Ebbinghaus-Android.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="27">
   <si>
     <t>序号</t>
   </si>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:N369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+      <selection activeCell="B15" sqref="B15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1758,33 +1758,35 @@
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="17">
         <f t="shared" si="3"/>
         <v>43421</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7">
+      <c r="C13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="12">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="12">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="12">
         <v>8</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="12">
         <v>7</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="12">
         <v>5</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="12">
         <v>2</v>
       </c>
       <c r="K13" s="7" t="s">
@@ -1804,33 +1806,35 @@
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="17">
         <f t="shared" si="3"/>
         <v>43422</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7">
+      <c r="C14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="12">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="12">
         <v>9</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="12">
         <v>8</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="12">
         <v>6</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="12">
         <v>3</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -1850,33 +1854,35 @@
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="17">
         <f t="shared" si="3"/>
         <v>43423</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7">
+      <c r="C15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="12">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="12">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="12">
         <v>10</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="12">
         <v>9</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="12">
         <v>7</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="12">
         <v>4</v>
       </c>
       <c r="K15" s="7" t="s">

--- a/StudyProgress/Ebbinghaus-Android.xlsx
+++ b/StudyProgress/Ebbinghaus-Android.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="27">
   <si>
     <t>序号</t>
   </si>
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N369"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:J15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1902,33 +1902,35 @@
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="17">
         <f t="shared" si="3"/>
         <v>43424</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7">
+      <c r="C16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="12">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="12">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="12">
         <v>11</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="12">
         <v>10</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="12">
         <v>8</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="12">
         <v>5</v>
       </c>
       <c r="K16" s="7" t="s">

--- a/StudyProgress/Ebbinghaus-Android.xlsx
+++ b/StudyProgress/Ebbinghaus-Android.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="27">
   <si>
     <t>序号</t>
   </si>
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:J16"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1471,7 +1471,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="17">
-        <f t="shared" ref="B7:B32" si="3">B6+1</f>
+        <f t="shared" ref="B7:B39" si="3">B6+1</f>
         <v>43415</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -2686,8 +2686,9 @@
       <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>16</v>
+      <c r="B33" s="9">
+        <f t="shared" si="3"/>
+        <v>43441</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="7">
@@ -2731,8 +2732,9 @@
       <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>16</v>
+      <c r="B34" s="9">
+        <f t="shared" si="3"/>
+        <v>43442</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="7">
@@ -2776,8 +2778,9 @@
       <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>16</v>
+      <c r="B35" s="9">
+        <f t="shared" si="3"/>
+        <v>43443</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="7">
@@ -2821,8 +2824,9 @@
       <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>16</v>
+      <c r="B36" s="9">
+        <f t="shared" si="3"/>
+        <v>43444</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="7">
@@ -2866,8 +2870,9 @@
       <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>16</v>
+      <c r="B37" s="9">
+        <f t="shared" si="3"/>
+        <v>43445</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="7">
@@ -2911,8 +2916,9 @@
       <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>16</v>
+      <c r="B38" s="9">
+        <f t="shared" si="3"/>
+        <v>43446</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="7">
@@ -2956,8 +2962,9 @@
       <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>16</v>
+      <c r="B39" s="9">
+        <f t="shared" si="3"/>
+        <v>43447</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="7">

--- a/StudyProgress/Ebbinghaus-Android.xlsx
+++ b/StudyProgress/Ebbinghaus-Android.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="27">
   <si>
     <t>序号</t>
   </si>
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N369"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1950,33 +1950,35 @@
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="17">
         <f t="shared" si="3"/>
         <v>43425</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7">
+      <c r="C17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="12">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="12">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="12">
         <v>12</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="12">
         <v>11</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="12">
         <v>9</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="12">
         <v>6</v>
       </c>
       <c r="K17" s="7" t="s">
@@ -1996,33 +1998,35 @@
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="17">
         <f t="shared" si="3"/>
         <v>43426</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7">
+      <c r="C18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="12">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="12">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="12">
         <v>13</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="12">
         <v>12</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="12">
         <v>10</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="12">
         <v>7</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -2042,33 +2046,35 @@
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="17">
         <f t="shared" si="3"/>
         <v>43427</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7">
+      <c r="C19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="12">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="12">
         <v>14</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="12">
         <v>13</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="12">
         <v>11</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="12">
         <v>8</v>
       </c>
       <c r="K19" s="7" t="s">

--- a/StudyProgress/Ebbinghaus-Android.xlsx
+++ b/StudyProgress/Ebbinghaus-Android.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="27">
   <si>
     <t>序号</t>
   </si>
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2094,36 +2094,38 @@
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="17">
         <f t="shared" si="3"/>
         <v>43428</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7">
+      <c r="C20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="12">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="12">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="12">
         <v>15</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="12">
         <v>14</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="12">
         <v>12</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="12">
         <v>9</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="12">
         <v>1</v>
       </c>
       <c r="L20" s="7" t="s">
@@ -2140,36 +2142,38 @@
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="17">
         <f t="shared" si="3"/>
         <v>43429</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7">
+      <c r="C21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="12">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="12">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="G21" s="7">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="G21" s="12">
+        <v>16</v>
+      </c>
+      <c r="H21" s="12">
         <v>15</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="12">
         <v>13</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="12">
         <v>10</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="12">
         <v>2</v>
       </c>
       <c r="L21" s="7" t="s">
@@ -2186,36 +2190,38 @@
       <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="17">
         <f t="shared" si="3"/>
         <v>43430</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7">
+      <c r="C22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="12">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="12">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="G22" s="7">
-        <v>17</v>
-      </c>
-      <c r="H22" s="7">
-        <v>16</v>
-      </c>
-      <c r="I22" s="7">
+      <c r="G22" s="12">
+        <v>17</v>
+      </c>
+      <c r="H22" s="12">
+        <v>16</v>
+      </c>
+      <c r="I22" s="12">
         <v>14</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="12">
         <v>11</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="12">
         <v>3</v>
       </c>
       <c r="L22" s="7" t="s">
@@ -2232,36 +2238,38 @@
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="17">
         <f t="shared" si="3"/>
         <v>43431</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7">
+      <c r="C23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="12">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="12">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="12">
         <v>18</v>
       </c>
-      <c r="H23" s="7">
-        <v>17</v>
-      </c>
-      <c r="I23" s="7">
+      <c r="H23" s="12">
+        <v>17</v>
+      </c>
+      <c r="I23" s="12">
         <v>15</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="12">
         <v>12</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="12">
         <v>4</v>
       </c>
       <c r="L23" s="7" t="s">
